--- a/address.xlsx
+++ b/address.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{772817D4-76C6-4AFA-BB96-ADBEFBB900CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4690CB-0DC2-4EB1-A2BA-9454183FD157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>elu</t>
+  </si>
+  <si>
+    <t>veda</t>
+  </si>
+  <si>
+    <t>gogulamudi</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,7 +507,18 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="3"/>
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>657986</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="3"/>

--- a/address.xlsx
+++ b/address.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4690CB-0DC2-4EB1-A2BA-9454183FD157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97FB77C-E8E2-4D85-ACAF-4487CE1599B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -48,7 +48,7 @@
     <t>teja</t>
   </si>
   <si>
-    <t>d</t>
+    <t>bollu</t>
   </si>
   <si>
     <t>vij</t>
@@ -69,13 +69,22 @@
     <t>vemula</t>
   </si>
   <si>
-    <t>elu</t>
+    <t>eluru</t>
   </si>
   <si>
     <t>veda</t>
   </si>
   <si>
     <t>gogulamudi</t>
+  </si>
+  <si>
+    <t>sathvika</t>
+  </si>
+  <si>
+    <t>mallempati</t>
+  </si>
+  <si>
+    <t>gosala</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +530,18 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
+        <v>98697</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="1"/>

--- a/address.xlsx
+++ b/address.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97FB77C-E8E2-4D85-ACAF-4487CE1599B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A751F59-9DF6-4D79-87BA-6451C6FBF6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -85,13 +85,16 @@
   </si>
   <si>
     <t>gosala</t>
+  </si>
+  <si>
+    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,8 +549,8 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3">
-        <v>98697</v>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/address.xlsx
+++ b/address.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A751F59-9DF6-4D79-87BA-6451C6FBF6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E560F362-5C90-4AE2-9AB7-DBD8D2CCE739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>gosala</t>
   </si>
   <si>
-    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
+    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balancer backend service.Create multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/address.xlsx
+++ b/address.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E560F362-5C90-4AE2-9AB7-DBD8D2CCE739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF47107B-8A6B-4987-8606-58FB3C142B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,9 @@
     <t>kad</t>
   </si>
   <si>
+    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balancer backend service.Create multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
+  </si>
+  <si>
     <t>rama</t>
   </si>
   <si>
@@ -87,7 +90,7 @@
     <t>gosala</t>
   </si>
   <si>
-    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balancer backend service.Create multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
+    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balance multi-zone managed instance group attached to a global lakauhfkgsadkfgjsagfjagsjfsaj wueqioad balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -507,19 +510,19 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <v>98668</v>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>8768768</v>
@@ -527,10 +530,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -541,16 +544,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/address.xlsx
+++ b/address.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF47107B-8A6B-4987-8606-58FB3C142B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F488152-02FD-49D6-BC00-2D616D925927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>kad</t>
   </si>
   <si>
-    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balancer backend service.Create multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
+    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balancer backend service.Create multi-zone managed instance group attached to a global load balancer backend service.    to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.minku instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a chikki multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
   </si>
   <si>
     <t>rama</t>
@@ -90,7 +90,7 @@
     <t>gosala</t>
   </si>
   <si>
-    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balance multi-zone managed instance group attached to a global lakauhfkgsadkfgjsagfjagsjfsaj wueqioad balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.</t>
+    <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balance multi-zone managed instance group attached to a global lakauhfkgsadkfgjsagfjagsjfsaj wueqioad balancer backend service.   instance group attached to a global load balancer backend service.Create a multi-zone, managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed minku group attached to a global load balancer backend service.</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/address.xlsx
+++ b/address.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F488152-02FD-49D6-BC00-2D616D925927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{030395C4-DFB5-4103-A671-C4FB33518D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Based Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -91,13 +92,569 @@
   </si>
   <si>
     <t>Create a multi-zone managed instance group attached to a global load balancer backend service. balance multi-zone managed instance group attached to a global lakauhfkgsadkfgjsagfjagsjfsaj wueqioad balancer backend service.   instance group attached to a global load balancer backend service.Create a multi-zone, managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed instance group attached to a global load balancer backend service.Create a multi-zone managed minku group attached to a global load balancer backend service.</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Question No</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Scenario-Based Question</t>
+  </si>
+  <si>
+    <t>Navya</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deploy a VM in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private subnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with NAT gateway access and attach a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with read-only permissions to a specific GCS bucket.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bucket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with lifecycle rules to delete objects older than 60 days and enable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logging to another bucket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Configure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firewall rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to allow only SSH and HTTP traffic to VMs in a public subnet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deploy a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global HTTP load balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a backend instance group and configure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>health checks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and autoscaling.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deploy a VM with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IAP-secured SSH access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enabled for a specific user email and attach a service account with limited permissions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bhargavi</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deploy a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VPC with public and private subnets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and configure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud NAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the private subnet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Create a preemptible VM with a persistent disk and run a startup script to install Nginx.</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Configure a service account with roles/storage.admin and attach it to a VM.</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deploy a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regional internal load balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a managed instance group as backend.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Terraform module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to deploy VM + bucket + firewall rules, reusable for dev and prod environments with variables.</t>
+    </r>
+  </si>
+  <si>
+    <t>Irfana</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deploy a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bucket with public read-only access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, enable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object versioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and configure IAM bindings for a service account.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Deploy a VM in private subnet behind NAT and configure firewall rules to allow only ICMP and SSH.</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multi-zone managed instance group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attached to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global load balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> backend service.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Configure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IAP access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for a VM instance using a specific </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and user email.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Create a custom IAM role with storage read/write access and attach it to a VM service account.</t>
+  </si>
+  <si>
+    <t>Saketh</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Deploy a VM with a startup script that creates a bucket and uploads a file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +685,13 @@
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -583,4 +1147,255 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BB219B-1C78-4D2C-9629-350B10C87171}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/address.xlsx
+++ b/address.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{030395C4-DFB5-4103-A671-C4FB33518D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{530D3BFE-4F77-4220-9E3B-11744B6B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Based Questions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -253,55 +253,6 @@
   </si>
   <si>
     <t>Hard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Deploy a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>global HTTP load balancer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with a backend instance group and configure </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>health checks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and autoscaling.</t>
-    </r>
   </si>
   <si>
     <t>Q5</t>
@@ -1153,7 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BB219B-1C78-4D2C-9629-350B10C87171}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1223,176 +1176,174 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/address.xlsx
+++ b/address.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{530D3BFE-4F77-4220-9E3B-11744B6B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6C16A4-5A39-45D9-999D-BE5B9A40B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Based Questions" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Deploy a VM with </t>
     </r>
@@ -273,16 +272,14 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IAP-secured SSH access</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>IAP-secured  MINKU SSH access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> enabled for a specific user email and attach a service account with limited permissions.</t>
     </r>
@@ -346,7 +343,7 @@
     <t>Q7</t>
   </si>
   <si>
-    <t>Create a preemptible VM with a persistent disk and run a startup script to install Nginx.</t>
+    <t xml:space="preserve">Create a preemptible VM with a persistent disk and run a </t>
   </si>
   <si>
     <t>Q8</t>
@@ -605,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +640,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -975,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1040,7 +1043,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>8768768</v>
+        <v>6476758579</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1104,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BB219B-1C78-4D2C-9629-350B10C87171}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,7 +1191,7 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/address.xlsx
+++ b/address.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6C16A4-5A39-45D9-999D-BE5B9A40B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F5EE3C-7FCB-4BFA-97A2-45F9A773157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>eluru</t>
+  </si>
+  <si>
+    <t>https://github.com/Manasa-Bollu/excletocsv</t>
   </si>
   <si>
     <t>veda</t>
@@ -602,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +638,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -665,17 +676,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,7 +993,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1042,16 +1056,16 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
-        <v>6476758579</v>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1062,16 +1076,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1099,6 +1113,9 @@
       <c r="D22" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{9B748303-9289-45AA-A1D8-466A74313147}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1115,238 +1132,238 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
